--- a/tianwentai/setttings.xlsx
+++ b/tianwentai/setttings.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -69,13 +69,13 @@
     <t>pmAm</t>
   </si>
   <si>
-    <t>牛柏寒</t>
+    <t>徐之昊</t>
   </si>
   <si>
-    <t>411024199308248000</t>
+    <t>430223200008017213</t>
   </si>
   <si>
-    <t>星期五</t>
+    <t>星期日</t>
   </si>
   <si>
     <t>YES</t>
@@ -90,16 +90,16 @@
     <t>440684200011281521</t>
   </si>
   <si>
-    <t>星期六</t>
+    <t>杨智琛</t>
   </si>
   <si>
-    <t>下午</t>
+    <t>441302199701106119</t>
   </si>
   <si>
-    <t>徐之昊</t>
+    <t>曹馨予</t>
   </si>
   <si>
-    <t>430223200008017213</t>
+    <t>610404199811091025</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1134,21 +1134,21 @@
         <v>18566660591</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1187,54 +1187,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>18566660591</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>18566660591</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="5"/>
+      <c r="D7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="5"/>
@@ -6216,14 +6183,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4:C5 C6:C7 C8:C1002">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4:E5 E6:E7 E8:E1002">
-      <formula1>"星期一,星期二,星期三,星期四,星期五,星期六,星期日"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4:F5 F6:F7 F8:F1002">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1000 G1001:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4:G5 G6:G1000 G1001:G1048576">
       <formula1>"上午,下午"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5 E6:E7 E8:E1002">
+      <formula1>"星期一,星期二,星期三,星期四,星期五,星期六,星期日"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
